--- a/data/input/Deudas/Anticipos - BIANCOTTI, Rubn.xlsx
+++ b/data/input/Deudas/Anticipos - BIANCOTTI, Rubn.xlsx
@@ -61,13 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -467,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +472,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="43.2" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="16.8" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
     <col width="26.4" customWidth="1" min="4" max="4"/>
@@ -487,113 +484,32 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-    </row>
+    <row r="6"/>
+    <row r="7"/>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Impuesto</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Ant. / Cuota</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Período Fiscal</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>Fecha de Vencimiento</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Saldo</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>217 - SICORE-IMPTO.A LAS GANANCIAS</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>202405</v>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>12/06/2024</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>217 - SICORE-IMPTO.A LAS GANANCIAS</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>202407</v>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13/08/2024</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>217 - SICORE-IMPTO.A LAS GANANCIAS</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>202408</v>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>11/09/2024</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,00</t>
         </is>
       </c>
     </row>
